--- a/data/Book1.xlsx
+++ b/data/Book1.xlsx
@@ -18,24 +18,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
-    <t>People</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Mood</t>
-  </si>
-  <si>
-    <t>Path</t>
-  </si>
-  <si>
     <t>Dubai - United Arab Emirates</t>
   </si>
   <si>
@@ -106,6 +88,24 @@
   </si>
   <si>
     <t>Cold Spring, NY, United States</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>mood</t>
+  </si>
+  <si>
+    <t>path</t>
   </si>
 </sst>
 </file>
@@ -113,7 +113,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -146,7 +146,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,7 +451,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,22 +464,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -487,19 +487,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1">
         <v>41202</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -507,19 +507,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1">
         <v>41099</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -527,19 +527,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1">
         <v>40923</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -547,19 +547,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1">
         <v>41481</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -567,19 +567,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C6" s="1">
         <v>40746</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -587,19 +587,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1">
         <v>40752</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -607,19 +607,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C8" s="1">
         <v>41315</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -627,19 +627,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C9" s="1">
         <v>40902</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
